--- a/hardware/Air_Quality/air_quality_v2/bom/air_quality_bom.xlsx
+++ b/hardware/Air_Quality/air_quality_v2/bom/air_quality_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonaCappelle\Documents\Github\sensors\hardware\Air_Quality\air_quality_v2\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94434925-1394-4F27-99E8-3CF7B3A647BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEBDFD5-5A17-4F0E-821B-EC752EFCE4EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="air_quality_bom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Id</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Per stuk</t>
+  </si>
+  <si>
+    <t>Reel / afgesneden</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1168,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1529,7 @@
         <v>85</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,7 +1581,7 @@
         <v>68</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
